--- a/tests/test-files/test_wrangling/expected/data_tables_from_KHA/stats_analysis_output_mean_KHA.xlsx
+++ b/tests/test-files/test_wrangling/expected/data_tables_from_KHA/stats_analysis_output_mean_KHA.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -619,10 +619,10 @@
         <v>-0.03039633850859253</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01927169984371923</v>
+        <v>7.740754352216362e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.00304646494273459</v>
+        <v>-0.6770916479661494</v>
       </c>
     </row>
     <row r="5">
@@ -662,10 +662,10 @@
         <v>-0.04016914116474088</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01927169984371923</v>
+        <v>0.0001547524617236402</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.00304646494273459</v>
+        <v>-3.040811689836488</v>
       </c>
     </row>
     <row r="6">
@@ -702,13 +702,13 @@
         <v>0.6900000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>0.009788714246415545</v>
+        <v>0.009788714246415541</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01927169984371923</v>
+        <v>0.0001305781042304367</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.00304646494273459</v>
+        <v>0.03000894289364781</v>
       </c>
     </row>
     <row r="7">
@@ -750,10 +750,10 @@
         <v>-0.004107367962078613</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01927169984371923</v>
+        <v>7.740754352216362e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.00304646494273459</v>
+        <v>-0.6770916479661494</v>
       </c>
     </row>
     <row r="8">
@@ -793,10 +793,10 @@
         <v>-0.0113369667949057</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01927169984371923</v>
+        <v>0.0001547524617236402</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.00304646494273459</v>
+        <v>-3.040811689836488</v>
       </c>
     </row>
     <row r="9">
@@ -836,10 +836,10 @@
         <v>0.01540173088883663</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01927169984371923</v>
+        <v>0.0001305781042304367</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.00304646494273459</v>
+        <v>0.03000894289364781</v>
       </c>
     </row>
     <row r="10">
@@ -881,10 +881,10 @@
         <v>-0.03702303786219876</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01927169984371923</v>
+        <v>7.740754352216362e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.00304646494273459</v>
+        <v>-0.6770916479661494</v>
       </c>
     </row>
     <row r="11">
@@ -924,10 +924,10 @@
         <v>-0.0428437118533057</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01927169984371923</v>
+        <v>0.0001547524617236402</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.00304646494273459</v>
+        <v>-3.040811689836488</v>
       </c>
     </row>
     <row r="12">
@@ -967,10 +967,10 @@
         <v>0.01906927138255438</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01927169984371923</v>
+        <v>0.0001305781042304367</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.00304646494273459</v>
+        <v>0.03000894289364781</v>
       </c>
     </row>
     <row r="13">
@@ -1012,10 +1012,10 @@
         <v>-0.03187391907801264</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01927169984371923</v>
+        <v>7.740754352216362e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.00304646494273459</v>
+        <v>-0.6770916479661494</v>
       </c>
     </row>
     <row r="14">
@@ -1055,10 +1055,10 @@
         <v>-0.03961718868338611</v>
       </c>
       <c r="N14" t="n">
-        <v>0.01927169984371923</v>
+        <v>0.0001547524617236402</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.00304646494273459</v>
+        <v>-3.040811689836488</v>
       </c>
     </row>
     <row r="15">
@@ -1098,10 +1098,10 @@
         <v>0.02908140641025168</v>
       </c>
       <c r="N15" t="n">
-        <v>0.01927169984371923</v>
+        <v>0.0001305781042304367</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.00304646494273459</v>
+        <v>0.03000894289364781</v>
       </c>
     </row>
     <row r="16">
@@ -1143,10 +1143,10 @@
         <v>-0.02765137859914583</v>
       </c>
       <c r="N16" t="n">
-        <v>0.01927169984371923</v>
+        <v>7.740754352216362e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.00304646494273459</v>
+        <v>-0.6770916479661494</v>
       </c>
     </row>
     <row r="17">
@@ -1186,10 +1186,10 @@
         <v>-0.03474042788086511</v>
       </c>
       <c r="N17" t="n">
-        <v>0.01927169984371923</v>
+        <v>0.0001547524617236402</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.00304646494273459</v>
+        <v>-3.040811689836488</v>
       </c>
     </row>
     <row r="18">
@@ -1229,10 +1229,10 @@
         <v>0.04344500278820356</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01927169984371923</v>
+        <v>0.0001305781042304367</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.00304646494273459</v>
+        <v>0.03000894289364781</v>
       </c>
     </row>
     <row r="19">
@@ -1274,10 +1274,10 @@
         <v>-0.0254136427058706</v>
       </c>
       <c r="N19" t="n">
-        <v>0.01927169984371923</v>
+        <v>7.740754352216362e-05</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.00304646494273459</v>
+        <v>-0.6770916479661494</v>
       </c>
     </row>
     <row r="20">
@@ -1317,10 +1317,10 @@
         <v>-0.03286258244365511</v>
       </c>
       <c r="N20" t="n">
-        <v>0.01927169984371923</v>
+        <v>0.0001547524617236402</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.00304646494273459</v>
+        <v>-3.040811689836488</v>
       </c>
     </row>
     <row r="21">
@@ -1360,10 +1360,10 @@
         <v>0.03722147027553075</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01927169984371923</v>
+        <v>0.0001305781042304367</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.00304646494273459</v>
+        <v>0.03000894289364781</v>
       </c>
     </row>
     <row r="22">
@@ -1405,10 +1405,10 @@
         <v>-0.02551440240314163</v>
       </c>
       <c r="N22" t="n">
-        <v>0.01927169984371923</v>
+        <v>7.740754352216362e-05</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.00304646494273459</v>
+        <v>-0.6770916479661494</v>
       </c>
     </row>
     <row r="23">
@@ -1448,10 +1448,10 @@
         <v>-0.02706682211645893</v>
       </c>
       <c r="N23" t="n">
-        <v>0.01927169984371923</v>
+        <v>0.0001547524617236402</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.00304646494273459</v>
+        <v>-3.040811689836488</v>
       </c>
     </row>
     <row r="24">
@@ -1491,10 +1491,10 @@
         <v>0.05660676896386935</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01927169984371923</v>
+        <v>0.0001305781042304367</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.00304646494273459</v>
+        <v>0.03000894289364781</v>
       </c>
     </row>
     <row r="25">
@@ -1538,10 +1538,10 @@
         <v>-0.02289107237445501</v>
       </c>
       <c r="N25" t="n">
-        <v>0.03806960632272405</v>
+        <v>0.0004012991669103314</v>
       </c>
       <c r="O25" t="n">
-        <v>0.003243352076494126</v>
+        <v>-0.1262393593862015</v>
       </c>
     </row>
     <row r="26">
@@ -1581,10 +1581,10 @@
         <v>0.005809788614574259</v>
       </c>
       <c r="N26" t="n">
-        <v>0.03806960632272405</v>
+        <v>7.192778190104732e-05</v>
       </c>
       <c r="O26" t="n">
-        <v>0.003243352076494126</v>
+        <v>0.04327897108612919</v>
       </c>
     </row>
     <row r="27">
@@ -1626,10 +1626,10 @@
         <v>-0.008732432084381729</v>
       </c>
       <c r="N27" t="n">
-        <v>0.03806960632272405</v>
+        <v>0.0004012991669103314</v>
       </c>
       <c r="O27" t="n">
-        <v>0.003243352076494126</v>
+        <v>-0.1262393593862015</v>
       </c>
     </row>
     <row r="28">
@@ -1669,10 +1669,10 @@
         <v>0.02680726673451173</v>
       </c>
       <c r="N28" t="n">
-        <v>0.03806960632272405</v>
+        <v>7.192778190104732e-05</v>
       </c>
       <c r="O28" t="n">
-        <v>0.003243352076494126</v>
+        <v>0.04327897108612919</v>
       </c>
     </row>
     <row r="29">
@@ -1714,10 +1714,10 @@
         <v>-0.03604029428272656</v>
       </c>
       <c r="N29" t="n">
-        <v>0.03806960632272405</v>
+        <v>0.0004012991669103314</v>
       </c>
       <c r="O29" t="n">
-        <v>0.003243352076494126</v>
+        <v>-0.1262393593862015</v>
       </c>
     </row>
     <row r="30">
@@ -1757,10 +1757,10 @@
         <v>0.02847010595850545</v>
       </c>
       <c r="N30" t="n">
-        <v>0.03806960632272405</v>
+        <v>7.192778190104732e-05</v>
       </c>
       <c r="O30" t="n">
-        <v>0.003243352076494126</v>
+        <v>0.04327897108612919</v>
       </c>
     </row>
     <row r="31">
@@ -1802,10 +1802,10 @@
         <v>-0.02833335483980551</v>
       </c>
       <c r="N31" t="n">
-        <v>0.03806960632272405</v>
+        <v>0.0004012991669103314</v>
       </c>
       <c r="O31" t="n">
-        <v>0.003243352076494126</v>
+        <v>-0.1262393593862015</v>
       </c>
     </row>
     <row r="32">
@@ -1845,10 +1845,10 @@
         <v>0.04253769293647906</v>
       </c>
       <c r="N32" t="n">
-        <v>0.03806960632272405</v>
+        <v>7.192778190104732e-05</v>
       </c>
       <c r="O32" t="n">
-        <v>0.003243352076494126</v>
+        <v>0.04327897108612919</v>
       </c>
     </row>
     <row r="33">
@@ -1887,13 +1887,13 @@
         <v>0.8128</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.02562008586857071</v>
+        <v>-0.0256200858685707</v>
       </c>
       <c r="N33" t="n">
-        <v>0.03806960632272405</v>
+        <v>0.0004012991669103314</v>
       </c>
       <c r="O33" t="n">
-        <v>0.003243352076494126</v>
+        <v>-0.1262393593862015</v>
       </c>
     </row>
     <row r="34">
@@ -1933,10 +1933,10 @@
         <v>0.05233649550041632</v>
       </c>
       <c r="N34" t="n">
-        <v>0.03806960632272405</v>
+        <v>7.192778190104732e-05</v>
       </c>
       <c r="O34" t="n">
-        <v>0.003243352076494126</v>
+        <v>0.04327897108612919</v>
       </c>
     </row>
     <row r="35">
@@ -1978,10 +1978,10 @@
         <v>-0.02399603294808468</v>
       </c>
       <c r="N35" t="n">
-        <v>0.03806960632272405</v>
+        <v>0.0004012991669103314</v>
       </c>
       <c r="O35" t="n">
-        <v>0.003243352076494126</v>
+        <v>-0.1262393593862015</v>
       </c>
     </row>
     <row r="36">
@@ -2021,10 +2021,10 @@
         <v>0.05886241635068747</v>
       </c>
       <c r="N36" t="n">
-        <v>0.03806960632272405</v>
+        <v>7.192778190104732e-05</v>
       </c>
       <c r="O36" t="n">
-        <v>0.003243352076494126</v>
+        <v>0.04327897108612919</v>
       </c>
     </row>
     <row r="37">
@@ -2066,10 +2066,10 @@
         <v>-0.02001782768412563</v>
       </c>
       <c r="N37" t="n">
-        <v>0.03806960632272405</v>
+        <v>0.0004012991669103314</v>
       </c>
       <c r="O37" t="n">
-        <v>0.003243352076494126</v>
+        <v>-0.1262393593862015</v>
       </c>
     </row>
     <row r="38">
@@ -2109,10 +2109,10 @@
         <v>0.07139168851379725</v>
       </c>
       <c r="N38" t="n">
-        <v>0.03806960632272405</v>
+        <v>7.192778190104732e-05</v>
       </c>
       <c r="O38" t="n">
-        <v>0.003243352076494126</v>
+        <v>0.04327897108612919</v>
       </c>
     </row>
     <row r="39">
@@ -2153,13 +2153,13 @@
         <v>0.95625</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.02857268554225436</v>
+        <v>-0.02857268554225437</v>
       </c>
       <c r="N39" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0003197057810654378</v>
       </c>
       <c r="O39" t="n">
-        <v>0.008209514846805563</v>
+        <v>-0.08211860356338543</v>
       </c>
     </row>
     <row r="40">
@@ -2199,10 +2199,10 @@
         <v>-0.04107844833949693</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0005338203559184425</v>
       </c>
       <c r="O40" t="n">
-        <v>0.008209514846805563</v>
+        <v>-3.204605044380548</v>
       </c>
     </row>
     <row r="41">
@@ -2242,10 +2242,10 @@
         <v>0.004888653117881784</v>
       </c>
       <c r="N41" t="n">
-        <v>0.1102366184859906</v>
+        <v>3.580588614879803e-05</v>
       </c>
       <c r="O41" t="n">
-        <v>0.008209514846805563</v>
+        <v>0.04793933119764837</v>
       </c>
     </row>
     <row r="42">
@@ -2284,13 +2284,13 @@
         <v>0.95625</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.01273434345494724</v>
+        <v>-0.01273434345494723</v>
       </c>
       <c r="N42" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0003197057810654378</v>
       </c>
       <c r="O42" t="n">
-        <v>0.008209514846805563</v>
+        <v>-0.08211860356338543</v>
       </c>
     </row>
     <row r="43">
@@ -2330,10 +2330,10 @@
         <v>-0.01604387586974487</v>
       </c>
       <c r="N43" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0005338203559184425</v>
       </c>
       <c r="O43" t="n">
-        <v>0.008209514846805563</v>
+        <v>-3.204605044380548</v>
       </c>
     </row>
     <row r="44">
@@ -2370,13 +2370,13 @@
         <v>0.95625</v>
       </c>
       <c r="M44" t="n">
-        <v>0.02502380386564806</v>
+        <v>0.02502380386564805</v>
       </c>
       <c r="N44" t="n">
-        <v>0.1102366184859906</v>
+        <v>3.580588614879803e-05</v>
       </c>
       <c r="O44" t="n">
-        <v>0.008209514846805563</v>
+        <v>0.04793933119764837</v>
       </c>
     </row>
     <row r="45">
@@ -2418,10 +2418,10 @@
         <v>-0.02471409003012482</v>
       </c>
       <c r="N45" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0003197057810654378</v>
       </c>
       <c r="O45" t="n">
-        <v>0.008209514846805563</v>
+        <v>-0.08211860356338543</v>
       </c>
     </row>
     <row r="46">
@@ -2461,10 +2461,10 @@
         <v>-0.03446288514127327</v>
       </c>
       <c r="N46" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0005338203559184425</v>
       </c>
       <c r="O46" t="n">
-        <v>0.008209514846805563</v>
+        <v>-3.204605044380548</v>
       </c>
     </row>
     <row r="47">
@@ -2504,10 +2504,10 @@
         <v>0.03029176699698969</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1102366184859906</v>
+        <v>3.580588614879803e-05</v>
       </c>
       <c r="O47" t="n">
-        <v>0.008209514846805563</v>
+        <v>0.04793933119764837</v>
       </c>
     </row>
     <row r="48">
@@ -2549,10 +2549,10 @@
         <v>-0.03088585505623797</v>
       </c>
       <c r="N48" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0003197057810654378</v>
       </c>
       <c r="O48" t="n">
-        <v>0.008209514846805563</v>
+        <v>-0.08211860356338543</v>
       </c>
     </row>
     <row r="49">
@@ -2592,10 +2592,10 @@
         <v>-0.03739946312839847</v>
       </c>
       <c r="N49" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0005338203559184425</v>
       </c>
       <c r="O49" t="n">
-        <v>0.008209514846805563</v>
+        <v>-3.204605044380548</v>
       </c>
     </row>
     <row r="50">
@@ -2632,13 +2632,13 @@
         <v>0.95625</v>
       </c>
       <c r="M50" t="n">
-        <v>0.04497438594984585</v>
+        <v>0.04497438594984584</v>
       </c>
       <c r="N50" t="n">
-        <v>0.1102366184859906</v>
+        <v>3.580588614879803e-05</v>
       </c>
       <c r="O50" t="n">
-        <v>0.008209514846805563</v>
+        <v>0.04793933119764837</v>
       </c>
     </row>
     <row r="51">
@@ -2677,13 +2677,13 @@
         <v>0.95625</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.0353366597411479</v>
+        <v>-0.03533665974114791</v>
       </c>
       <c r="N51" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0003197057810654378</v>
       </c>
       <c r="O51" t="n">
-        <v>0.008209514846805563</v>
+        <v>-0.08211860356338543</v>
       </c>
     </row>
     <row r="52">
@@ -2720,13 +2720,13 @@
         <v>0.95625</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.04312720852853184</v>
+        <v>-0.04312720852853183</v>
       </c>
       <c r="N52" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0005338203559184425</v>
       </c>
       <c r="O52" t="n">
-        <v>0.008209514846805563</v>
+        <v>-3.204605044380548</v>
       </c>
     </row>
     <row r="53">
@@ -2763,13 +2763,13 @@
         <v>0.95625</v>
       </c>
       <c r="M53" t="n">
-        <v>0.05088813512702695</v>
+        <v>0.05088813512702696</v>
       </c>
       <c r="N53" t="n">
-        <v>0.1102366184859906</v>
+        <v>3.580588614879803e-05</v>
       </c>
       <c r="O53" t="n">
-        <v>0.008209514846805563</v>
+        <v>0.04793933119764837</v>
       </c>
     </row>
     <row r="54">
@@ -2811,10 +2811,10 @@
         <v>-0.03388012702566612</v>
       </c>
       <c r="N54" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0003197057810654378</v>
       </c>
       <c r="O54" t="n">
-        <v>0.008209514846805563</v>
+        <v>-0.08211860356338543</v>
       </c>
     </row>
     <row r="55">
@@ -2854,10 +2854,10 @@
         <v>-0.04090212753287928</v>
       </c>
       <c r="N55" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0005338203559184425</v>
       </c>
       <c r="O55" t="n">
-        <v>0.008209514846805563</v>
+        <v>-3.204605044380548</v>
       </c>
     </row>
     <row r="56">
@@ -2897,10 +2897,10 @@
         <v>0.05675574527895234</v>
       </c>
       <c r="N56" t="n">
-        <v>0.1102366184859906</v>
+        <v>3.580588614879803e-05</v>
       </c>
       <c r="O56" t="n">
-        <v>0.008209514846805563</v>
+        <v>0.04793933119764837</v>
       </c>
     </row>
     <row r="57">
@@ -2942,10 +2942,10 @@
         <v>-0.03363220394961426</v>
       </c>
       <c r="N57" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0003197057810654378</v>
       </c>
       <c r="O57" t="n">
-        <v>0.008209514846805563</v>
+        <v>-0.08211860356338543</v>
       </c>
     </row>
     <row r="58">
@@ -2985,10 +2985,10 @@
         <v>-0.04162385064748735</v>
       </c>
       <c r="N58" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0005338203559184425</v>
       </c>
       <c r="O58" t="n">
-        <v>0.008209514846805563</v>
+        <v>-3.204605044380548</v>
       </c>
     </row>
     <row r="59">
@@ -3028,10 +3028,10 @@
         <v>0.0704558851496102</v>
       </c>
       <c r="N59" t="n">
-        <v>0.1102366184859906</v>
+        <v>3.580588614879803e-05</v>
       </c>
       <c r="O59" t="n">
-        <v>0.008209514846805563</v>
+        <v>0.04793933119764837</v>
       </c>
     </row>
     <row r="60">
@@ -3075,10 +3075,10 @@
         <v>0.01157930029337133</v>
       </c>
       <c r="N60" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0006816134021351375</v>
       </c>
       <c r="O60" t="n">
-        <v>0.008209514846805563</v>
+        <v>0.1149075676865855</v>
       </c>
     </row>
     <row r="61">
@@ -3117,13 +3117,13 @@
         <v>1.125</v>
       </c>
       <c r="M61" t="n">
-        <v>0.03403104077979237</v>
+        <v>0.03403104077979236</v>
       </c>
       <c r="N61" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0006816134021351375</v>
       </c>
       <c r="O61" t="n">
-        <v>0.008209514846805563</v>
+        <v>0.1149075676865855</v>
       </c>
     </row>
     <row r="62">
@@ -3165,10 +3165,10 @@
         <v>0.0408035007613216</v>
       </c>
       <c r="N62" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0006816134021351375</v>
       </c>
       <c r="O62" t="n">
-        <v>0.008209514846805563</v>
+        <v>0.1149075676865855</v>
       </c>
     </row>
     <row r="63">
@@ -3210,10 +3210,10 @@
         <v>0.09604545619510188</v>
       </c>
       <c r="N63" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0006816134021351375</v>
       </c>
       <c r="O63" t="n">
-        <v>0.008209514846805563</v>
+        <v>0.1149075676865855</v>
       </c>
     </row>
     <row r="64">
@@ -3255,10 +3255,10 @@
         <v>0.1107653591682524</v>
       </c>
       <c r="N64" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0006816134021351375</v>
       </c>
       <c r="O64" t="n">
-        <v>0.008209514846805563</v>
+        <v>0.1149075676865855</v>
       </c>
     </row>
     <row r="65">
@@ -3300,10 +3300,10 @@
         <v>0.09714021125981659</v>
       </c>
       <c r="N65" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0006816134021351375</v>
       </c>
       <c r="O65" t="n">
-        <v>0.008209514846805563</v>
+        <v>0.1149075676865855</v>
       </c>
     </row>
     <row r="66">
@@ -3345,10 +3345,10 @@
         <v>0.11988191037122</v>
       </c>
       <c r="N66" t="n">
-        <v>0.1102366184859906</v>
+        <v>0.0006816134021351375</v>
       </c>
       <c r="O66" t="n">
-        <v>0.008209514846805563</v>
+        <v>0.1149075676865855</v>
       </c>
     </row>
   </sheetData>
